--- a/cosinor_results/best_models.xlsx
+++ b/cosinor_results/best_models.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>test</t>
   </si>
@@ -49,9 +49,6 @@
     <t>log-likelihood</t>
   </si>
   <si>
-    <t>period(est)</t>
-  </si>
-  <si>
     <t>amplitude</t>
   </si>
   <si>
@@ -97,73 +94,76 @@
     <t>route_5</t>
   </si>
   <si>
-    <t>[ 7.50750751 12.21221221 15.21521522]</t>
-  </si>
-  <si>
-    <t>[ 7.60760761 11.81181181 14.61461461 21.22122122]</t>
-  </si>
-  <si>
-    <t>[ 7.80780781 10.81081081 12.41241241 15.61561562]</t>
-  </si>
-  <si>
-    <t>[ 8.10810811 11.91191191 15.41541542]</t>
-  </si>
-  <si>
-    <t>[ 7.40740741 12.21221221 15.81581582]</t>
-  </si>
-  <si>
-    <t>[ 7.40740741 11.11111111 15.51551552]</t>
-  </si>
-  <si>
-    <t>[0.12915534 0.12425473 0.13251965]</t>
-  </si>
-  <si>
-    <t>[0.13729746 0.14268485 0.14196607 0.13198532]</t>
-  </si>
-  <si>
-    <t>[0.16876623 0.15606614 0.15555656 0.17556373]</t>
-  </si>
-  <si>
-    <t>[0.15797529 0.17523403 0.18264102]</t>
-  </si>
-  <si>
-    <t>[0.15399821 0.15125193 0.16002127]</t>
-  </si>
-  <si>
-    <t>[0.06138668 0.05999069 0.06293596]</t>
-  </si>
-  <si>
-    <t>[ 2.5025025   5.10510511 20.72072072]</t>
-  </si>
-  <si>
-    <t>[ 3.2032032  23.32332332]</t>
-  </si>
-  <si>
-    <t>[ 3.9039039  21.92192192]</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>[0.6006006 2.2022022 4.9049049]</t>
-  </si>
-  <si>
-    <t>[0.7007007  4.9049049  9.10910911]</t>
-  </si>
-  <si>
-    <t>[0.10793431 0.11227017 0.11788611]</t>
-  </si>
-  <si>
-    <t>[0.11836279 0.12569351]</t>
-  </si>
-  <si>
-    <t>[0.12721862 0.13949181]</t>
-  </si>
-  <si>
-    <t>[0.11986908 0.12051025 0.12216406]</t>
-  </si>
-  <si>
-    <t>[0.05364783 0.05487536 0.05812267]</t>
+    <t>[ 7.4954955  12.25225225 15.23123123]</t>
+  </si>
+  <si>
+    <t>[ 7.54354354 11.81981982 14.60660661 21.28528529]</t>
+  </si>
+  <si>
+    <t>[ 7.83183183 10.81081081 12.44444444 15.61561562]</t>
+  </si>
+  <si>
+    <t>[ 8.07207207 11.91591592 15.37537538]</t>
+  </si>
+  <si>
+    <t>[ 7.3993994  12.25225225 15.80780781]</t>
+  </si>
+  <si>
+    <t>[ 7.3993994  11.14714715 15.47147147]</t>
+  </si>
+  <si>
+    <t>[0.12915459 0.12425654 0.13252189]</t>
+  </si>
+  <si>
+    <t>[0.13730809 0.14268407 0.14196597 0.13198969]</t>
+  </si>
+  <si>
+    <t>[0.16877459 0.15606614 0.15556069 0.17556373]</t>
+  </si>
+  <si>
+    <t>[0.15798076 0.17523313 0.18264326]</t>
+  </si>
+  <si>
+    <t>[0.15400149 0.15125098 0.1600205 ]</t>
+  </si>
+  <si>
+    <t>[0.06138766 0.05999123 0.06293907]</t>
+  </si>
+  <si>
+    <t>[ 2.4984985   5.14114114 20.70870871]</t>
+  </si>
+  <si>
+    <t>[ 3.17117117 23.3033033 ]</t>
+  </si>
+  <si>
+    <t>[ 3.93993994 21.95795796]</t>
+  </si>
+  <si>
+    <t>[23.87987988]</t>
+  </si>
+  <si>
+    <t>[0.62462462 2.16216216 4.9009009 ]</t>
+  </si>
+  <si>
+    <t>[0.72072072 4.9009009  9.12912913]</t>
+  </si>
+  <si>
+    <t>[0.10793408 0.11226664 0.11788607]</t>
+  </si>
+  <si>
+    <t>[0.11836059 0.12569049]</t>
+  </si>
+  <si>
+    <t>[0.1272132  0.13949075]</t>
+  </si>
+  <si>
+    <t>[0.13178167]</t>
+  </si>
+  <si>
+    <t>[0.1198653  0.12050894 0.12216371]</t>
+  </si>
+  <si>
+    <t>[0.05364655 0.05487553 0.05812082]</t>
   </si>
 </sst>
 </file>
@@ -521,13 +521,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,13 +588,10 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
-        <v>21</v>
       </c>
       <c r="B2">
         <v>24</v>
@@ -627,39 +624,36 @@
         <v>14774.81959346488</v>
       </c>
       <c r="L2">
-        <v>24</v>
+        <v>0.01229397211560396</v>
       </c>
       <c r="M2">
-        <v>0.01229408680731401</v>
+        <v>2.295658295415965</v>
       </c>
       <c r="N2">
-        <v>-3.983334028575647</v>
-      </c>
-      <c r="O2">
-        <v>0.1202280335867508</v>
+        <v>0.1202279188950407</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="R2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="S2">
+        <v>0.01163817445993024</v>
       </c>
       <c r="T2">
-        <v>0.01163817445993024</v>
-      </c>
-      <c r="U2">
         <v>0.005936138769690823</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>24</v>
@@ -692,39 +686,36 @@
         <v>15334.63607671175</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>0.01216222088476747</v>
       </c>
       <c r="M3">
-        <v>0.01216217331856081</v>
+        <v>-3.094421592725082</v>
       </c>
       <c r="N3">
-        <v>-24.73860080904876</v>
-      </c>
-      <c r="O3">
-        <v>0.1305226758497791</v>
+        <v>0.1305228130874185</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
       </c>
       <c r="P3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="Q3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="R3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="S3">
+        <v>0.01078668758027814</v>
       </c>
       <c r="T3">
-        <v>0.01078668758027814</v>
-      </c>
-      <c r="U3">
         <v>0.005501859839685025</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>24</v>
@@ -757,39 +748,36 @@
         <v>12257.50531093917</v>
       </c>
       <c r="L4">
-        <v>24</v>
+        <v>0.02417767373171074</v>
       </c>
       <c r="M4">
-        <v>0.02417717316973587</v>
+        <v>2.19502669890458</v>
       </c>
       <c r="N4">
-        <v>-4.088158608275006</v>
-      </c>
-      <c r="O4">
-        <v>0.1513907085318347</v>
+        <v>0.1513908712403493</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
       </c>
       <c r="P4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Q4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="R4" t="s">
-        <v>41</v>
-      </c>
-      <c r="S4" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="S4">
+        <v>0.02261383075070462</v>
       </c>
       <c r="T4">
-        <v>0.02261383075070462</v>
-      </c>
-      <c r="U4">
         <v>0.01153439213520453</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>24</v>
@@ -822,39 +810,36 @@
         <v>11735.65863050102</v>
       </c>
       <c r="L5">
+        <v>0.02543216646977339</v>
+      </c>
+      <c r="M5">
+        <v>2.257921446724196</v>
+      </c>
+      <c r="N5">
+        <v>0.1572118197879632</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5">
+        <v>0.02531752624929471</v>
+      </c>
+      <c r="T5">
+        <v>0.01291341429336136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>24</v>
-      </c>
-      <c r="M5">
-        <v>0.02543231698782107</v>
-      </c>
-      <c r="N5">
-        <v>-4.035746318425327</v>
-      </c>
-      <c r="O5">
-        <v>0.1572120938080617</v>
-      </c>
-      <c r="P5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>36</v>
-      </c>
-      <c r="R5" t="s">
-        <v>42</v>
-      </c>
-      <c r="S5" t="s">
-        <v>42</v>
-      </c>
-      <c r="T5">
-        <v>0.02531752624929471</v>
-      </c>
-      <c r="U5">
-        <v>0.01291341429336136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" t="s">
-        <v>25</v>
       </c>
       <c r="B6">
         <v>24</v>
@@ -887,39 +872,36 @@
         <v>12240.33398693867</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>0.02007845130448498</v>
       </c>
       <c r="M6">
-        <v>0.02007836627065746</v>
+        <v>2.144710900648889</v>
       </c>
       <c r="N6">
-        <v>-4.140570898124686</v>
-      </c>
-      <c r="O6">
-        <v>0.1399429083897896</v>
+        <v>0.1399429934236172</v>
+      </c>
+      <c r="O6" t="s">
+        <v>30</v>
       </c>
       <c r="P6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Q6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="R6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S6" t="s">
         <v>48</v>
       </c>
+      <c r="S6">
+        <v>0.02207344194331097</v>
+      </c>
       <c r="T6">
-        <v>0.02207344194331097</v>
-      </c>
-      <c r="U6">
         <v>0.01125873182309507</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>24</v>
@@ -952,33 +934,30 @@
         <v>17714.75395392672</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>0.004646477120824975</v>
       </c>
       <c r="M7">
-        <v>0.004646354600492602</v>
+        <v>2.232763547596349</v>
       </c>
       <c r="N7">
-        <v>-4.061952463350166</v>
-      </c>
-      <c r="O7">
-        <v>0.05829251055474562</v>
+        <v>0.05829259029998839</v>
+      </c>
+      <c r="O7" t="s">
+        <v>31</v>
       </c>
       <c r="P7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Q7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="R7" t="s">
-        <v>44</v>
-      </c>
-      <c r="S7" t="s">
         <v>49</v>
       </c>
+      <c r="S7">
+        <v>0.005666843823338774</v>
+      </c>
       <c r="T7">
-        <v>0.005666843823338774</v>
-      </c>
-      <c r="U7">
         <v>0.002890420703270252</v>
       </c>
     </row>
